--- a/Results/ASD_Model_Performance_Metrics_Simple.xlsx
+++ b/Results/ASD_Model_Performance_Metrics_Simple.xlsx
@@ -595,19 +595,19 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>RegNet X-400MF</t>
+          <t>ViT-B16</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>84.67%</t>
+          <t>85.0%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>EfficientNet-B2</t>
+          <t>RegNet X-400MF</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
@@ -619,144 +619,144 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>MobileNet V2</t>
+          <t>EfficientNet-B2</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>82.33%</t>
+          <t>84.67%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>DenseNet-169</t>
+          <t>MobileNet V2</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>81.67%</t>
+          <t>82.33%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>ResNet-18</t>
+          <t>DenseNet-169</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>81.0%</t>
+          <t>81.67%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>ConvNeXT-Tiny</t>
+          <t>ResNet-18</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>73.33%</t>
+          <t>81.0%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>DeiT-Base</t>
+          <t>ConvNeXT-Tiny</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>73.0%</t>
+          <t>73.33%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>DeiT-Tiny</t>
+          <t>DeiT-Base</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>72.33%</t>
+          <t>73.0%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>DeiT-Small</t>
+          <t>DeiT-Tiny</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>72.0%</t>
+          <t>72.33%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>ViT-B/32</t>
+          <t>DeiT-Small</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>69.79%</t>
+          <t>72.0%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>MvIT-Base</t>
+          <t>ViT-B/32</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>69.0%</t>
+          <t>69.79%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>MvIT-Tiny</t>
+          <t>MvIT-Base</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>68.67%</t>
+          <t>69.0%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>MvIT-Small</t>
+          <t>MvIT-Tiny</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>68.33%</t>
+          <t>68.67%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>ViT-B16</t>
+          <t>MvIT-Small</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>68.33%</t>
         </is>
       </c>
     </row>
